--- a/dev_support/CopyrightLicense/C_and_L_Maintenance_Notes.xlsx
+++ b/dev_support/CopyrightLicense/C_and_L_Maintenance_Notes.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1380" windowWidth="24400" windowHeight="26340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="26340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$89</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>EuroMPI13-firstcast</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Notes for semi-annual copyright and license review</t>
   </si>
   <si>
-    <t>Last update: 28 August 2014</t>
-  </si>
-  <si>
     <t>Original notes:</t>
   </si>
   <si>
@@ -367,13 +364,58 @@
   </si>
   <si>
     <t>HDF Group Repository and Product Copyright &amp; License (C&amp;L) Maintenance Notes</t>
+  </si>
+  <si>
+    <t>Updated:</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>HDF Compass</t>
+  </si>
+  <si>
+    <t>Compass C&amp;L + 9 supporting package C&amp;Ls</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>HDF Product Designer</t>
+  </si>
+  <si>
+    <t>HDF Server</t>
+  </si>
+  <si>
+    <t>hpd</t>
+  </si>
+  <si>
+    <t>h5serv</t>
+  </si>
+  <si>
+    <t>150122 conversation w/Jo Eads: "Raytheon believes the C&amp;L will be able to reside with us; if not, will be Gov't C&amp;L."  Project started with no plans for software, so no license consideration was included.  Should be resolved by March.</t>
+  </si>
+  <si>
+    <t>Current lis of THG GitHub repositories available at:</t>
+  </si>
+  <si>
+    <t>https://github.com/HDFGroup/</t>
+  </si>
+  <si>
+    <t>150122: Review GitHub repos to make sure all products there are included in this table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do for next C&amp;L review cycle:  </t>
+  </si>
+  <si>
+    <t>Last update: 22 January 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +467,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -496,6 +543,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -853,706 +909,925 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="1">
+        <v>150122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:11">
+        <v>128</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="30">
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="F17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30">
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="45" customHeight="1">
+      <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="I21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="C22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="F27" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="H29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30">
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="F31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="F32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="F33" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="F37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="F39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="F40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:14" ht="30" customHeight="1">
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="F42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="F49" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="F51" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="30">
+      <c r="C52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30">
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="56" spans="3:9">
+      <c r="C56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="3:9" ht="30">
+      <c r="C58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30">
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    <row r="60" spans="3:9">
+      <c r="C60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    <row r="61" spans="3:9">
+      <c r="C61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="F64" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    <row r="65" spans="3:14">
+      <c r="C65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="C66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="F66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    <row r="67" spans="3:14" ht="30" customHeight="1">
+      <c r="C67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="F67" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" spans="3:14">
+      <c r="C68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="F68" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="C69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="3:14">
+      <c r="C70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="F70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14">
+      <c r="C71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="3:14">
+      <c r="C72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="F72" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    <row r="73" spans="3:14">
+      <c r="C73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="3:14">
+      <c r="C74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="F74" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14">
+      <c r="C75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="F75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    <row r="76" spans="3:14">
+      <c r="C76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="3:14">
+      <c r="C77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="3:14">
+      <c r="C78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="3:14">
+      <c r="C79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="3:14">
+      <c r="C80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="F80" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="3:8" ht="30">
+      <c r="C82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="F82" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="F83" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="F84" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="30" customHeight="1">
-      <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
+    <row r="85" spans="3:8">
+      <c r="C85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="F85" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="30">
-      <c r="B44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="30">
-      <c r="B50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="30" customHeight="1">
-      <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="30">
-      <c r="B74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="F89" s="9"/>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="F59:K59"/>
+  <mergeCells count="4">
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="I21:N21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B15" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B20" r:id="rId9"/>
-    <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B22" r:id="rId11"/>
-    <hyperlink ref="B23" r:id="rId12"/>
-    <hyperlink ref="B24" r:id="rId13"/>
-    <hyperlink ref="B25" r:id="rId14"/>
-    <hyperlink ref="B26" r:id="rId15"/>
-    <hyperlink ref="B27" r:id="rId16"/>
-    <hyperlink ref="B28" r:id="rId17"/>
-    <hyperlink ref="B29" r:id="rId18"/>
-    <hyperlink ref="B30" r:id="rId19"/>
-    <hyperlink ref="B31" r:id="rId20"/>
-    <hyperlink ref="B32" r:id="rId21"/>
-    <hyperlink ref="B33" r:id="rId22"/>
-    <hyperlink ref="B34" r:id="rId23"/>
-    <hyperlink ref="B35" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B37" r:id="rId26"/>
-    <hyperlink ref="B38" r:id="rId27"/>
-    <hyperlink ref="B39" r:id="rId28"/>
-    <hyperlink ref="B40" r:id="rId29"/>
-    <hyperlink ref="B41" r:id="rId30"/>
-    <hyperlink ref="B42" r:id="rId31"/>
-    <hyperlink ref="B43" r:id="rId32"/>
-    <hyperlink ref="B44" r:id="rId33"/>
-    <hyperlink ref="B45" r:id="rId34"/>
-    <hyperlink ref="B46" r:id="rId35"/>
-    <hyperlink ref="B47" r:id="rId36"/>
-    <hyperlink ref="B48" r:id="rId37"/>
-    <hyperlink ref="B49" r:id="rId38"/>
-    <hyperlink ref="B50" r:id="rId39"/>
-    <hyperlink ref="B51" r:id="rId40"/>
-    <hyperlink ref="B52" r:id="rId41"/>
-    <hyperlink ref="B53" r:id="rId42"/>
-    <hyperlink ref="B54" r:id="rId43"/>
-    <hyperlink ref="B55" r:id="rId44"/>
-    <hyperlink ref="B56" r:id="rId45"/>
-    <hyperlink ref="B57" r:id="rId46"/>
-    <hyperlink ref="B58" r:id="rId47"/>
-    <hyperlink ref="B59" r:id="rId48"/>
-    <hyperlink ref="B60" r:id="rId49"/>
-    <hyperlink ref="B61" r:id="rId50"/>
-    <hyperlink ref="B62" r:id="rId51"/>
-    <hyperlink ref="B63" r:id="rId52"/>
-    <hyperlink ref="B64" r:id="rId53"/>
-    <hyperlink ref="B65" r:id="rId54"/>
-    <hyperlink ref="B66" r:id="rId55"/>
-    <hyperlink ref="B67" r:id="rId56"/>
-    <hyperlink ref="B68" r:id="rId57"/>
-    <hyperlink ref="B69" r:id="rId58"/>
-    <hyperlink ref="B70" r:id="rId59"/>
-    <hyperlink ref="B71" r:id="rId60"/>
-    <hyperlink ref="B72" r:id="rId61"/>
-    <hyperlink ref="B73" r:id="rId62"/>
-    <hyperlink ref="B74" r:id="rId63"/>
-    <hyperlink ref="B75" r:id="rId64"/>
-    <hyperlink ref="B76" r:id="rId65"/>
-    <hyperlink ref="B77" r:id="rId66"/>
+    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C24" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6"/>
+    <hyperlink ref="C26" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C28" r:id="rId9"/>
+    <hyperlink ref="C29" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C31" r:id="rId12"/>
+    <hyperlink ref="C32" r:id="rId13"/>
+    <hyperlink ref="C33" r:id="rId14"/>
+    <hyperlink ref="C34" r:id="rId15"/>
+    <hyperlink ref="C35" r:id="rId16"/>
+    <hyperlink ref="C36" r:id="rId17"/>
+    <hyperlink ref="C37" r:id="rId18"/>
+    <hyperlink ref="C38" r:id="rId19"/>
+    <hyperlink ref="C39" r:id="rId20"/>
+    <hyperlink ref="C40" r:id="rId21"/>
+    <hyperlink ref="C41" r:id="rId22"/>
+    <hyperlink ref="C42" r:id="rId23"/>
+    <hyperlink ref="C43" r:id="rId24"/>
+    <hyperlink ref="C44" r:id="rId25"/>
+    <hyperlink ref="C45" r:id="rId26"/>
+    <hyperlink ref="C46" r:id="rId27"/>
+    <hyperlink ref="C47" r:id="rId28"/>
+    <hyperlink ref="C48" r:id="rId29"/>
+    <hyperlink ref="C49" r:id="rId30"/>
+    <hyperlink ref="C50" r:id="rId31"/>
+    <hyperlink ref="C51" r:id="rId32"/>
+    <hyperlink ref="C52" r:id="rId33"/>
+    <hyperlink ref="C53" r:id="rId34"/>
+    <hyperlink ref="C54" r:id="rId35"/>
+    <hyperlink ref="C55" r:id="rId36"/>
+    <hyperlink ref="C56" r:id="rId37"/>
+    <hyperlink ref="C57" r:id="rId38"/>
+    <hyperlink ref="C58" r:id="rId39"/>
+    <hyperlink ref="C59" r:id="rId40"/>
+    <hyperlink ref="C60" r:id="rId41"/>
+    <hyperlink ref="C61" r:id="rId42"/>
+    <hyperlink ref="C62" r:id="rId43"/>
+    <hyperlink ref="C63" r:id="rId44"/>
+    <hyperlink ref="C64" r:id="rId45"/>
+    <hyperlink ref="C65" r:id="rId46"/>
+    <hyperlink ref="C66" r:id="rId47"/>
+    <hyperlink ref="C67" r:id="rId48"/>
+    <hyperlink ref="C68" r:id="rId49"/>
+    <hyperlink ref="C69" r:id="rId50"/>
+    <hyperlink ref="C70" r:id="rId51"/>
+    <hyperlink ref="C71" r:id="rId52"/>
+    <hyperlink ref="C72" r:id="rId53"/>
+    <hyperlink ref="C73" r:id="rId54"/>
+    <hyperlink ref="C74" r:id="rId55"/>
+    <hyperlink ref="C75" r:id="rId56"/>
+    <hyperlink ref="C76" r:id="rId57"/>
+    <hyperlink ref="C77" r:id="rId58"/>
+    <hyperlink ref="C78" r:id="rId59"/>
+    <hyperlink ref="C79" r:id="rId60"/>
+    <hyperlink ref="C80" r:id="rId61"/>
+    <hyperlink ref="C81" r:id="rId62"/>
+    <hyperlink ref="C82" r:id="rId63"/>
+    <hyperlink ref="C83" r:id="rId64"/>
+    <hyperlink ref="C84" r:id="rId65"/>
+    <hyperlink ref="C85" r:id="rId66"/>
+    <hyperlink ref="C20" r:id="rId67"/>
+    <hyperlink ref="C21" r:id="rId68"/>
+    <hyperlink ref="C22" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
